--- a/MatProg/Lab_1/Книга1.xlsx
+++ b/MatProg/Lab_1/Книга1.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Force\Documents\University\4-sem\MatProg\Lab_1\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{FF0F3B33-895B-4C07-820A-E8656EBFA1A1}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0C88D572-6BF3-42BA-A60F-2F7260CA651E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="3000" yWindow="900" windowWidth="21600" windowHeight="11385" xr2:uid="{C7F5BC52-AD44-4CBC-803C-6E59BAE64FC1}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{C7F5BC52-AD44-4CBC-803C-6E59BAE64FC1}"/>
   </bookViews>
   <sheets>
     <sheet name="Лист1" sheetId="1" r:id="rId1"/>
@@ -132,6 +132,427 @@
     <c:plotArea>
       <c:layout/>
       <c:scatterChart>
+        <c:scatterStyle val="lineMarker"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:spPr>
+            <a:ln w="19050" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent1"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="none"/>
+          </c:marker>
+          <c:trendline>
+            <c:spPr>
+              <a:ln w="19050" cap="rnd">
+                <a:solidFill>
+                  <a:schemeClr val="accent1"/>
+                </a:solidFill>
+                <a:prstDash val="sysDot"/>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+            <c:trendlineType val="linear"/>
+            <c:dispRSqr val="1"/>
+            <c:dispEq val="0"/>
+            <c:trendlineLbl>
+              <c:numFmt formatCode="General" sourceLinked="0"/>
+              <c:spPr>
+                <a:noFill/>
+                <a:ln>
+                  <a:noFill/>
+                </a:ln>
+                <a:effectLst/>
+              </c:spPr>
+              <c:txPr>
+                <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+                <a:lstStyle/>
+                <a:p>
+                  <a:pPr>
+                    <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                      <a:solidFill>
+                        <a:schemeClr val="tx1">
+                          <a:lumMod val="65000"/>
+                          <a:lumOff val="35000"/>
+                        </a:schemeClr>
+                      </a:solidFill>
+                      <a:latin typeface="+mn-lt"/>
+                      <a:ea typeface="+mn-ea"/>
+                      <a:cs typeface="+mn-cs"/>
+                    </a:defRPr>
+                  </a:pPr>
+                  <a:endParaRPr lang="ru-RU"/>
+                </a:p>
+              </c:txPr>
+            </c:trendlineLbl>
+          </c:trendline>
+          <c:errBars>
+            <c:errDir val="y"/>
+            <c:errBarType val="both"/>
+            <c:errValType val="fixedVal"/>
+            <c:noEndCap val="0"/>
+            <c:val val="1"/>
+            <c:spPr>
+              <a:noFill/>
+              <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:round/>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:errBars>
+          <c:errBars>
+            <c:errDir val="x"/>
+            <c:errBarType val="both"/>
+            <c:errValType val="fixedVal"/>
+            <c:noEndCap val="0"/>
+            <c:val val="1"/>
+            <c:spPr>
+              <a:noFill/>
+              <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:round/>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:errBars>
+          <c:xVal>
+            <c:numRef>
+              <c:f>Лист1!$B$19:$B$28</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="10"/>
+                <c:pt idx="0">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>10</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>100</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>1000</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>10000</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>100000</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>1000000</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>10000000</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>100000000</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>1000000000</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:xVal>
+          <c:yVal>
+            <c:numRef>
+              <c:f>Лист1!$C$19:$C$28</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="10"/>
+                <c:pt idx="0">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>8</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>79</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>844</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>7437</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>65230</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:yVal>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000000-664B-4012-B318-42EA3205C5A4}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:axId val="656723807"/>
+        <c:axId val="656727135"/>
+      </c:scatterChart>
+      <c:valAx>
+        <c:axId val="656723807"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="25000"/>
+                <a:lumOff val="75000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="ru-RU"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="656727135"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="midCat"/>
+      </c:valAx>
+      <c:valAx>
+        <c:axId val="656727135"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="25000"/>
+                <a:lumOff val="75000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="ru-RU"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="656723807"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="midCat"/>
+      </c:valAx>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+    </c:plotArea>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:extLst>
+      <c:ext xmlns:c16r3="http://schemas.microsoft.com/office/drawing/2017/03/chart" uri="{56B9EC1D-385E-4148-901F-78D8002777C0}">
+        <c16r3:dataDisplayOptions16>
+          <c16r3:dispNaAsBlank val="1"/>
+        </c16r3:dataDisplayOptions16>
+      </c:ext>
+    </c:extLst>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:spPr>
+    <a:solidFill>
+      <a:schemeClr val="bg1"/>
+    </a:solidFill>
+    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:solidFill>
+        <a:schemeClr val="tx1">
+          <a:lumMod val="15000"/>
+          <a:lumOff val="85000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:round/>
+    </a:ln>
+    <a:effectLst/>
+  </c:spPr>
+  <c:txPr>
+    <a:bodyPr/>
+    <a:lstStyle/>
+    <a:p>
+      <a:pPr>
+        <a:defRPr/>
+      </a:pPr>
+      <a:endParaRPr lang="ru-RU"/>
+    </a:p>
+  </c:txPr>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/chart2.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+  <c:date1904 val="0"/>
+  <c:lang val="ru-RU"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:title>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="ru-RU"/>
+        </a:p>
+      </c:txPr>
+    </c:title>
+    <c:autoTitleDeleted val="0"/>
+    <c:plotArea>
+      <c:layout/>
+      <c:scatterChart>
         <c:scatterStyle val="smoothMarker"/>
         <c:varyColors val="0"/>
         <c:ser>
@@ -149,6 +570,50 @@
           <c:marker>
             <c:symbol val="none"/>
           </c:marker>
+          <c:trendline>
+            <c:spPr>
+              <a:ln w="19050" cap="rnd">
+                <a:solidFill>
+                  <a:schemeClr val="accent1"/>
+                </a:solidFill>
+                <a:prstDash val="sysDot"/>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+            <c:trendlineType val="exp"/>
+            <c:dispRSqr val="1"/>
+            <c:dispEq val="1"/>
+            <c:trendlineLbl>
+              <c:numFmt formatCode="General" sourceLinked="0"/>
+              <c:spPr>
+                <a:noFill/>
+                <a:ln>
+                  <a:noFill/>
+                </a:ln>
+                <a:effectLst/>
+              </c:spPr>
+              <c:txPr>
+                <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+                <a:lstStyle/>
+                <a:p>
+                  <a:pPr>
+                    <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                      <a:solidFill>
+                        <a:schemeClr val="tx1">
+                          <a:lumMod val="65000"/>
+                          <a:lumOff val="35000"/>
+                        </a:schemeClr>
+                      </a:solidFill>
+                      <a:latin typeface="+mn-lt"/>
+                      <a:ea typeface="+mn-ea"/>
+                      <a:cs typeface="+mn-cs"/>
+                    </a:defRPr>
+                  </a:pPr>
+                  <a:endParaRPr lang="ru-RU"/>
+                </a:p>
+              </c:txPr>
+            </c:trendlineLbl>
+          </c:trendline>
           <c:xVal>
             <c:numRef>
               <c:f>Лист1!$B$2:$B$11</c:f>
@@ -195,16 +660,16 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="10"/>
                 <c:pt idx="0">
-                  <c:v>0</c:v>
+                  <c:v>1</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>0</c:v>
+                  <c:v>1</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>0</c:v>
+                  <c:v>1</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>0</c:v>
+                  <c:v>1</c:v>
                 </c:pt>
                 <c:pt idx="4">
                   <c:v>1</c:v>
@@ -421,427 +886,6 @@
 </c:chartSpace>
 </file>
 
-<file path=xl/charts/chart2.xml><?xml version="1.0" encoding="utf-8"?>
-<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
-  <c:date1904 val="0"/>
-  <c:lang val="ru-RU"/>
-  <c:roundedCorners val="0"/>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
-      <c14:style val="102"/>
-    </mc:Choice>
-    <mc:Fallback>
-      <c:style val="2"/>
-    </mc:Fallback>
-  </mc:AlternateContent>
-  <c:chart>
-    <c:title>
-      <c:overlay val="0"/>
-      <c:spPr>
-        <a:noFill/>
-        <a:ln>
-          <a:noFill/>
-        </a:ln>
-        <a:effectLst/>
-      </c:spPr>
-      <c:txPr>
-        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
-        <a:lstStyle/>
-        <a:p>
-          <a:pPr>
-            <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
-              <a:solidFill>
-                <a:schemeClr val="tx1">
-                  <a:lumMod val="65000"/>
-                  <a:lumOff val="35000"/>
-                </a:schemeClr>
-              </a:solidFill>
-              <a:latin typeface="+mn-lt"/>
-              <a:ea typeface="+mn-ea"/>
-              <a:cs typeface="+mn-cs"/>
-            </a:defRPr>
-          </a:pPr>
-          <a:endParaRPr lang="ru-RU"/>
-        </a:p>
-      </c:txPr>
-    </c:title>
-    <c:autoTitleDeleted val="0"/>
-    <c:plotArea>
-      <c:layout/>
-      <c:scatterChart>
-        <c:scatterStyle val="lineMarker"/>
-        <c:varyColors val="0"/>
-        <c:ser>
-          <c:idx val="0"/>
-          <c:order val="0"/>
-          <c:spPr>
-            <a:ln w="19050" cap="rnd">
-              <a:solidFill>
-                <a:schemeClr val="accent1"/>
-              </a:solidFill>
-              <a:round/>
-            </a:ln>
-            <a:effectLst/>
-          </c:spPr>
-          <c:marker>
-            <c:symbol val="none"/>
-          </c:marker>
-          <c:trendline>
-            <c:spPr>
-              <a:ln w="19050" cap="rnd">
-                <a:solidFill>
-                  <a:schemeClr val="accent1"/>
-                </a:solidFill>
-                <a:prstDash val="sysDot"/>
-              </a:ln>
-              <a:effectLst/>
-            </c:spPr>
-            <c:trendlineType val="linear"/>
-            <c:dispRSqr val="1"/>
-            <c:dispEq val="0"/>
-            <c:trendlineLbl>
-              <c:numFmt formatCode="General" sourceLinked="0"/>
-              <c:spPr>
-                <a:noFill/>
-                <a:ln>
-                  <a:noFill/>
-                </a:ln>
-                <a:effectLst/>
-              </c:spPr>
-              <c:txPr>
-                <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
-                <a:lstStyle/>
-                <a:p>
-                  <a:pPr>
-                    <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
-                      <a:solidFill>
-                        <a:schemeClr val="tx1">
-                          <a:lumMod val="65000"/>
-                          <a:lumOff val="35000"/>
-                        </a:schemeClr>
-                      </a:solidFill>
-                      <a:latin typeface="+mn-lt"/>
-                      <a:ea typeface="+mn-ea"/>
-                      <a:cs typeface="+mn-cs"/>
-                    </a:defRPr>
-                  </a:pPr>
-                  <a:endParaRPr lang="ru-RU"/>
-                </a:p>
-              </c:txPr>
-            </c:trendlineLbl>
-          </c:trendline>
-          <c:errBars>
-            <c:errDir val="y"/>
-            <c:errBarType val="both"/>
-            <c:errValType val="fixedVal"/>
-            <c:noEndCap val="0"/>
-            <c:val val="1"/>
-            <c:spPr>
-              <a:noFill/>
-              <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-                <a:solidFill>
-                  <a:schemeClr val="tx1">
-                    <a:lumMod val="65000"/>
-                    <a:lumOff val="35000"/>
-                  </a:schemeClr>
-                </a:solidFill>
-                <a:round/>
-              </a:ln>
-              <a:effectLst/>
-            </c:spPr>
-          </c:errBars>
-          <c:errBars>
-            <c:errDir val="x"/>
-            <c:errBarType val="both"/>
-            <c:errValType val="fixedVal"/>
-            <c:noEndCap val="0"/>
-            <c:val val="1"/>
-            <c:spPr>
-              <a:noFill/>
-              <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-                <a:solidFill>
-                  <a:schemeClr val="tx1">
-                    <a:lumMod val="65000"/>
-                    <a:lumOff val="35000"/>
-                  </a:schemeClr>
-                </a:solidFill>
-                <a:round/>
-              </a:ln>
-              <a:effectLst/>
-            </c:spPr>
-          </c:errBars>
-          <c:xVal>
-            <c:numRef>
-              <c:f>Лист1!$B$19:$B$28</c:f>
-              <c:numCache>
-                <c:formatCode>General</c:formatCode>
-                <c:ptCount val="10"/>
-                <c:pt idx="0">
-                  <c:v>1</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>10</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>100</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>1000</c:v>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v>10000</c:v>
-                </c:pt>
-                <c:pt idx="5">
-                  <c:v>100000</c:v>
-                </c:pt>
-                <c:pt idx="6">
-                  <c:v>1000000</c:v>
-                </c:pt>
-                <c:pt idx="7">
-                  <c:v>10000000</c:v>
-                </c:pt>
-                <c:pt idx="8">
-                  <c:v>100000000</c:v>
-                </c:pt>
-                <c:pt idx="9">
-                  <c:v>1000000000</c:v>
-                </c:pt>
-              </c:numCache>
-            </c:numRef>
-          </c:xVal>
-          <c:yVal>
-            <c:numRef>
-              <c:f>Лист1!$C$19:$C$28</c:f>
-              <c:numCache>
-                <c:formatCode>General</c:formatCode>
-                <c:ptCount val="10"/>
-                <c:pt idx="0">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v>1</c:v>
-                </c:pt>
-                <c:pt idx="5">
-                  <c:v>8</c:v>
-                </c:pt>
-                <c:pt idx="6">
-                  <c:v>79</c:v>
-                </c:pt>
-                <c:pt idx="7">
-                  <c:v>844</c:v>
-                </c:pt>
-                <c:pt idx="8">
-                  <c:v>7437</c:v>
-                </c:pt>
-                <c:pt idx="9">
-                  <c:v>65230</c:v>
-                </c:pt>
-              </c:numCache>
-            </c:numRef>
-          </c:yVal>
-          <c:smooth val="0"/>
-          <c:extLst>
-            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{00000000-664B-4012-B318-42EA3205C5A4}"/>
-            </c:ext>
-          </c:extLst>
-        </c:ser>
-        <c:dLbls>
-          <c:showLegendKey val="0"/>
-          <c:showVal val="0"/>
-          <c:showCatName val="0"/>
-          <c:showSerName val="0"/>
-          <c:showPercent val="0"/>
-          <c:showBubbleSize val="0"/>
-        </c:dLbls>
-        <c:axId val="656723807"/>
-        <c:axId val="656727135"/>
-      </c:scatterChart>
-      <c:valAx>
-        <c:axId val="656723807"/>
-        <c:scaling>
-          <c:orientation val="minMax"/>
-        </c:scaling>
-        <c:delete val="0"/>
-        <c:axPos val="b"/>
-        <c:majorGridlines>
-          <c:spPr>
-            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-              <a:solidFill>
-                <a:schemeClr val="tx1">
-                  <a:lumMod val="15000"/>
-                  <a:lumOff val="85000"/>
-                </a:schemeClr>
-              </a:solidFill>
-              <a:round/>
-            </a:ln>
-            <a:effectLst/>
-          </c:spPr>
-        </c:majorGridlines>
-        <c:numFmt formatCode="General" sourceLinked="1"/>
-        <c:majorTickMark val="none"/>
-        <c:minorTickMark val="none"/>
-        <c:tickLblPos val="nextTo"/>
-        <c:spPr>
-          <a:noFill/>
-          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-            <a:solidFill>
-              <a:schemeClr val="tx1">
-                <a:lumMod val="25000"/>
-                <a:lumOff val="75000"/>
-              </a:schemeClr>
-            </a:solidFill>
-            <a:round/>
-          </a:ln>
-          <a:effectLst/>
-        </c:spPr>
-        <c:txPr>
-          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
-          <a:lstStyle/>
-          <a:p>
-            <a:pPr>
-              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
-                <a:solidFill>
-                  <a:schemeClr val="tx1">
-                    <a:lumMod val="65000"/>
-                    <a:lumOff val="35000"/>
-                  </a:schemeClr>
-                </a:solidFill>
-                <a:latin typeface="+mn-lt"/>
-                <a:ea typeface="+mn-ea"/>
-                <a:cs typeface="+mn-cs"/>
-              </a:defRPr>
-            </a:pPr>
-            <a:endParaRPr lang="ru-RU"/>
-          </a:p>
-        </c:txPr>
-        <c:crossAx val="656727135"/>
-        <c:crosses val="autoZero"/>
-        <c:crossBetween val="midCat"/>
-      </c:valAx>
-      <c:valAx>
-        <c:axId val="656727135"/>
-        <c:scaling>
-          <c:orientation val="minMax"/>
-        </c:scaling>
-        <c:delete val="0"/>
-        <c:axPos val="l"/>
-        <c:majorGridlines>
-          <c:spPr>
-            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-              <a:solidFill>
-                <a:schemeClr val="tx1">
-                  <a:lumMod val="15000"/>
-                  <a:lumOff val="85000"/>
-                </a:schemeClr>
-              </a:solidFill>
-              <a:round/>
-            </a:ln>
-            <a:effectLst/>
-          </c:spPr>
-        </c:majorGridlines>
-        <c:numFmt formatCode="General" sourceLinked="1"/>
-        <c:majorTickMark val="none"/>
-        <c:minorTickMark val="none"/>
-        <c:tickLblPos val="nextTo"/>
-        <c:spPr>
-          <a:noFill/>
-          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-            <a:solidFill>
-              <a:schemeClr val="tx1">
-                <a:lumMod val="25000"/>
-                <a:lumOff val="75000"/>
-              </a:schemeClr>
-            </a:solidFill>
-            <a:round/>
-          </a:ln>
-          <a:effectLst/>
-        </c:spPr>
-        <c:txPr>
-          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
-          <a:lstStyle/>
-          <a:p>
-            <a:pPr>
-              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
-                <a:solidFill>
-                  <a:schemeClr val="tx1">
-                    <a:lumMod val="65000"/>
-                    <a:lumOff val="35000"/>
-                  </a:schemeClr>
-                </a:solidFill>
-                <a:latin typeface="+mn-lt"/>
-                <a:ea typeface="+mn-ea"/>
-                <a:cs typeface="+mn-cs"/>
-              </a:defRPr>
-            </a:pPr>
-            <a:endParaRPr lang="ru-RU"/>
-          </a:p>
-        </c:txPr>
-        <c:crossAx val="656723807"/>
-        <c:crosses val="autoZero"/>
-        <c:crossBetween val="midCat"/>
-      </c:valAx>
-      <c:spPr>
-        <a:noFill/>
-        <a:ln>
-          <a:noFill/>
-        </a:ln>
-        <a:effectLst/>
-      </c:spPr>
-    </c:plotArea>
-    <c:plotVisOnly val="1"/>
-    <c:dispBlanksAs val="gap"/>
-    <c:extLst>
-      <c:ext xmlns:c16r3="http://schemas.microsoft.com/office/drawing/2017/03/chart" uri="{56B9EC1D-385E-4148-901F-78D8002777C0}">
-        <c16r3:dataDisplayOptions16>
-          <c16r3:dispNaAsBlank val="1"/>
-        </c16r3:dataDisplayOptions16>
-      </c:ext>
-    </c:extLst>
-    <c:showDLblsOverMax val="0"/>
-  </c:chart>
-  <c:spPr>
-    <a:solidFill>
-      <a:schemeClr val="bg1"/>
-    </a:solidFill>
-    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-      <a:solidFill>
-        <a:schemeClr val="tx1">
-          <a:lumMod val="15000"/>
-          <a:lumOff val="85000"/>
-        </a:schemeClr>
-      </a:solidFill>
-      <a:round/>
-    </a:ln>
-    <a:effectLst/>
-  </c:spPr>
-  <c:txPr>
-    <a:bodyPr/>
-    <a:lstStyle/>
-    <a:p>
-      <a:pPr>
-        <a:defRPr/>
-      </a:pPr>
-      <a:endParaRPr lang="ru-RU"/>
-    </a:p>
-  </c:txPr>
-  <c:printSettings>
-    <c:headerFooter/>
-    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
-    <c:pageSetup/>
-  </c:printSettings>
-</c:chartSpace>
-</file>
-
 <file path=xl/charts/colors1.xml><?xml version="1.0" encoding="utf-8"?>
 <cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
   <a:schemeClr val="accent1"/>
@@ -1959,22 +2003,22 @@
   <xdr:twoCellAnchor>
     <xdr:from>
       <xdr:col>3</xdr:col>
-      <xdr:colOff>200025</xdr:colOff>
-      <xdr:row>0</xdr:row>
-      <xdr:rowOff>185737</xdr:rowOff>
+      <xdr:colOff>600075</xdr:colOff>
+      <xdr:row>18</xdr:row>
+      <xdr:rowOff>4762</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>10</xdr:col>
-      <xdr:colOff>504825</xdr:colOff>
-      <xdr:row>15</xdr:row>
-      <xdr:rowOff>71437</xdr:rowOff>
+      <xdr:col>11</xdr:col>
+      <xdr:colOff>295275</xdr:colOff>
+      <xdr:row>32</xdr:row>
+      <xdr:rowOff>80962</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
-        <xdr:cNvPr id="3" name="Диаграмма 2">
+        <xdr:cNvPr id="4" name="Диаграмма 3">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{258DD9D2-39C9-49EC-8B56-7AD4969E6C2A}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{7126270F-FCAA-47B3-87F1-4753420201D3}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -1995,22 +2039,22 @@
   <xdr:twoCellAnchor>
     <xdr:from>
       <xdr:col>3</xdr:col>
-      <xdr:colOff>600075</xdr:colOff>
-      <xdr:row>18</xdr:row>
-      <xdr:rowOff>4762</xdr:rowOff>
+      <xdr:colOff>564092</xdr:colOff>
+      <xdr:row>0</xdr:row>
+      <xdr:rowOff>186947</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>11</xdr:col>
-      <xdr:colOff>295275</xdr:colOff>
-      <xdr:row>32</xdr:row>
-      <xdr:rowOff>80962</xdr:rowOff>
+      <xdr:colOff>256570</xdr:colOff>
+      <xdr:row>15</xdr:row>
+      <xdr:rowOff>72647</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
-        <xdr:cNvPr id="4" name="Диаграмма 3">
+        <xdr:cNvPr id="5" name="Диаграмма 4">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{7126270F-FCAA-47B3-87F1-4753420201D3}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{06D69271-C398-49CD-A964-5D04BEC9A214}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -2330,8 +2374,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{37CB4E2C-373B-4F11-B053-A65E8CACA78A}">
   <dimension ref="B2:C28"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="84" workbookViewId="0">
-      <selection activeCell="B19" sqref="B19:C28"/>
+    <sheetView tabSelected="1" zoomScale="126" workbookViewId="0">
+      <selection activeCell="J17" sqref="J17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -2345,7 +2389,7 @@
         <v>5</v>
       </c>
       <c r="C2">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="3" spans="2:3" x14ac:dyDescent="0.25">
@@ -2353,7 +2397,7 @@
         <v>10</v>
       </c>
       <c r="C3">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="4" spans="2:3" x14ac:dyDescent="0.25">
@@ -2361,7 +2405,7 @@
         <v>15</v>
       </c>
       <c r="C4">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="5" spans="2:3" x14ac:dyDescent="0.25">
@@ -2369,7 +2413,7 @@
         <v>20</v>
       </c>
       <c r="C5">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="6" spans="2:3" x14ac:dyDescent="0.25">
